--- a/biology/Botanique/Gautieria/Gautieria.xlsx
+++ b/biology/Botanique/Gautieria/Gautieria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gautieria est un genre de champignons agaricomycètes de la famille des Gomphaceae. Son nom est dédié à Joseph Gautieri[1]. L'espèce type est Gautieria morchelliformis Vittad.[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gautieria est un genre de champignons agaricomycètes de la famille des Gomphaceae. Son nom est dédié à Joseph Gautieri. L'espèce type est Gautieria morchelliformis Vittad..
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme
-De forme sphérique ou irrégulière cette fausse truffe est fortement ancrée au sol par des cordons mycéliens. A maturité, l'aspect général est celui d'une morille[3].
-Péridium
-Le péridium n'est souvent marqué que sur les jeunes sujets, il est alors blanchâtre[3] cependant chez certaines espèces, il peut être persistant[4].
-Gleba
-La gleba est creusée de nombreuses cavités. Une columelle est souvent bien visible chez les jeunes exemplaires[3].
-Spores
-Il y a en général deux basidiospores par baside, faiblement colorées et de grande taille[3].
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De forme sphérique ou irrégulière cette fausse truffe est fortement ancrée au sol par des cordons mycéliens. A maturité, l'aspect général est celui d'une morille.
 </t>
         </is>
       </c>
@@ -546,12 +557,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Péridium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le péridium n'est souvent marqué que sur les jeunes sujets, il est alors blanchâtre cependant chez certaines espèces, il peut être persistant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gautieria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gautieria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gleba</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gleba est creusée de nombreuses cavités. Une columelle est souvent bien visible chez les jeunes exemplaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gautieria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gautieria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spores</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a en général deux basidiospores par baside, faiblement colorées et de grande taille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gautieria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gautieria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 octobre 2013)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 octobre 2013) :
 Gautieria albida
 Gautieria caudata
 Gautieria chengdensis
@@ -581,7 +705,7 @@
 Gautieria sinensis
 Gautieria tasmanica
 Gautieria trabutii
-Selon Index Fungorum                                      (11 octobre 2013)[6] :
+Selon Index Fungorum                                      (11 octobre 2013) :
 Gautieria albida (Massee &amp; Rodway) Zeller &amp; C.W. Dodge 1934
 Gautieria caudata (Harkn.) Zeller &amp; C.W. Dodge 1934
 Gautieria chengdensis J.Z. Ying 1984
@@ -617,7 +741,7 @@
 Gautieria tasmanica Rodway 1929
 Gautieria trabutii (Chatin) Pat. 1897
 Gautieria villosa Quél. 1879
-Selon NCBI  (11 octobre 2013)[7] :
+Selon NCBI  (11 octobre 2013) :
 Gautieria caudata
 Gautieria chilensis
 Gautieria crispa
